--- a/Tabela/Cabo Frio/Cabo Frio-1.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-1.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="122">
+  <si>
+    <t>Conheça o Spazio Vila de Regência, o 3° condomínio fechado desse projeto oferece apartamentos de 2 quartos em Morada de Larajeiras, com elevador, todos com vaga de garagem. Confort...</t>
+  </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>em construção</t>
+    <t>mais</t>
   </si>
   <si>
     <t>super destaque</t>
@@ -28,364 +31,355 @@
     <t>destaque</t>
   </si>
   <si>
-    <t>Sob consulta</t>
-  </si>
-  <si>
-    <t>R$ 420.000</t>
+    <t>R$ 260.000</t>
+  </si>
+  <si>
+    <t>R$ 105.000</t>
+  </si>
+  <si>
+    <t>R$ 215.000</t>
+  </si>
+  <si>
+    <t>R$ 135.000</t>
+  </si>
+  <si>
+    <t>R$ 239.000</t>
+  </si>
+  <si>
+    <t>R$ 310.000</t>
+  </si>
+  <si>
+    <t>R$ 200.000</t>
+  </si>
+  <si>
+    <t>R$ 360.000</t>
+  </si>
+  <si>
+    <t>R$ 300.000</t>
+  </si>
+  <si>
+    <t>Rua dos Rouxinóis, Morada de Laranjeiras</t>
+  </si>
+  <si>
+    <t>R$ 94.000</t>
+  </si>
+  <si>
+    <t>R$ 99.999</t>
+  </si>
+  <si>
+    <t>R$ 1.050.000</t>
+  </si>
+  <si>
+    <t>R$ 299.000</t>
+  </si>
+  <si>
+    <t>A Imobiliária Confiança Oferece uma Excelente Oportunidade!!</t>
+  </si>
+  <si>
+    <t>Realize o Sonho da casa Própria com Camila Oliveira Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>Imóvel Localizado a 50 m² da Rodovia em Unamar - Região dos lagos Por 215 mil só a vista .</t>
+  </si>
+  <si>
+    <t>Casa de 2 quartos, com piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>R$ 280.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 450 IPTU R$ 800</t>
+  </si>
+  <si>
+    <t>R$ 450.000</t>
+  </si>
+  <si>
+    <t>A casa de condomínio está localizado no bairro Terramar (Tamoios) com 148 metros quadrados com 2 quartos sendo 1 suite e 2 banheiros</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>R$ 490.000</t>
+  </si>
+  <si>
+    <t>R$ 196.000</t>
+  </si>
+  <si>
+    <t>Casa com dois Dormitórios e duas quitinetes de frente para o mar, à Venda, Por R$300.000 - Aquarius Cabo Frio/RJ.</t>
+  </si>
+  <si>
+    <t>R$ 175.000</t>
   </si>
   <si>
     <t>R$ 125.000</t>
   </si>
   <si>
-    <t>R$ 1.200.000</t>
-  </si>
-  <si>
-    <t>R$ 430.000</t>
-  </si>
-  <si>
-    <t>R$ 475.000</t>
-  </si>
-  <si>
-    <t>R$ 610.000</t>
-  </si>
-  <si>
-    <t>R$ 590.000</t>
-  </si>
-  <si>
-    <t>R$ 450.000</t>
-  </si>
-  <si>
-    <t>R$ 490.000</t>
-  </si>
-  <si>
-    <t>R$ 500.000</t>
-  </si>
-  <si>
-    <t>R$ 220.000</t>
-  </si>
-  <si>
-    <t>R$ 530.000</t>
-  </si>
-  <si>
-    <t>R$ 380.000</t>
-  </si>
-  <si>
-    <t>R$ 650.000</t>
-  </si>
-  <si>
-    <t>R$ 645.000</t>
-  </si>
-  <si>
-    <t>R$ 720.000</t>
-  </si>
-  <si>
-    <t>R$ 200.000</t>
-  </si>
-  <si>
-    <t>R$ 730.000</t>
-  </si>
-  <si>
-    <t>R$ 379.999</t>
-  </si>
-  <si>
-    <t>Novos lotes em Nova Venécia ES!</t>
-  </si>
-  <si>
-    <t>condomínio R$ 200 IPTU R$ 28</t>
-  </si>
-  <si>
-    <t>Linda casa de 2 quartos, com piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 750 IPTU R$ 3.519</t>
-  </si>
-  <si>
-    <t>condomínio R$ 620 IPTU R$ 800</t>
-  </si>
-  <si>
-    <t>condomínio R$ 495 IPTU R$ 1.400</t>
-  </si>
-  <si>
-    <t>condomínio R$ 516 IPTU R$ 755</t>
-  </si>
-  <si>
-    <t>condomínio R$ 500</t>
-  </si>
-  <si>
-    <t>condomínio R$ 580</t>
-  </si>
-  <si>
-    <t>condomínio R$ 640 IPTU R$ 725</t>
-  </si>
-  <si>
-    <t>condomínio R$ 380</t>
-  </si>
-  <si>
-    <t>IPTU R$ 240</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 1.100</t>
-  </si>
-  <si>
-    <t>condomínio R$ 415 IPTU R$ 30</t>
-  </si>
-  <si>
-    <t>condomínio R$ 164</t>
-  </si>
-  <si>
-    <t>condomínio R$ 700 IPTU R$ 1.400</t>
-  </si>
-  <si>
-    <t>condomínio R$ 500 IPTU R$ 900</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 700</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO : CA0594 Placa 540</t>
-  </si>
-  <si>
-    <t>condomínio R$ 150</t>
-  </si>
-  <si>
-    <t>condomínio R$ 435 IPTU R$ 370</t>
-  </si>
-  <si>
-    <t>A sua chance de conseguir o seu lote no Flora Park II com o melhor preço da cidade.</t>
-  </si>
-  <si>
-    <t>Cabo Frio- Jardim Flamboyant-Linda casa planejada e decorada, pronta para morar ! - PAVIMENTO TÉRREO: Varanda, Sala, 1 Escritório aproveitando o vão sob a escada, 1 banheiro social...</t>
-  </si>
-  <si>
-    <t>Ampla cobertura duplex, composta de duas salas, cozinha, banheiro, três quartos sendo duas suítes, uma no andar superior e outra no inferior, espaço gourmet com churrasqueira, jacu...</t>
-  </si>
-  <si>
-    <t>Prédio com piscina e churrasqueira de frente para o mar na Praia das Dunas, Cabo Frio-RJ. Próximo ao antigo hotel Acapulco e à estrada de acesso a Arraial do Cabo. Portaria, parte...</t>
-  </si>
-  <si>
-    <t>Excelente apartamento localizado no Braga composto por:</t>
-  </si>
-  <si>
-    <t>Porque escolher este imóvel ?</t>
-  </si>
-  <si>
-    <t>Apartamento de 3 quartos, sendo 1 suíte, no Bairro da Passagem, em Cabo Frio. Imóvel com sala de televisão, sala de jantar, cozinha área serviço com área externa, banheiro de servi...</t>
+    <t>R$ 249.900</t>
+  </si>
+  <si>
+    <t>33 - 42 m²</t>
+  </si>
+  <si>
+    <t>condomínioR$ 151</t>
+  </si>
+  <si>
+    <t>Lindíssima casa 2 quartos em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 765 IPTU R$ 1.300</t>
+  </si>
+  <si>
+    <t>condomínioR$ 50 IPTU R$ 500</t>
+  </si>
+  <si>
+    <t>CRECI/RJ: Creci RJ- 01 077.888</t>
+  </si>
+  <si>
+    <t>IPTU R$ 450</t>
+  </si>
+  <si>
+    <t>Casa em Condomínio para venda no Peró em Cabo Frio RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 580</t>
+  </si>
+  <si>
+    <t>condomínioR$ 640 IPTU R$ 725</t>
+  </si>
+  <si>
+    <t>condomínioR$ 540 IPTU R$ 1.100</t>
+  </si>
+  <si>
+    <t>Residência plana, localizado em Aquarius, local tranquilo, clim...</t>
+  </si>
+  <si>
+    <t>M.CARVALHO IMOVEIS VENDE OTIMA OPORTUNIDADE......</t>
+  </si>
+  <si>
+    <t>condomínioR$ 164</t>
+  </si>
+  <si>
+    <t>IPTU R$ 185</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>Lindíssima casa 1 quarto em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Excelente cobertura na passagem, vista mar. 1ºpavimento: sala 2 ambientes, cozinha, varanda, 3 quartos sendo 2 suítes, banheiro social. 2º pavimento: sala, 1 suíte, varanda, churra...</t>
+  </si>
+  <si>
+    <t>TRIPLEX COM COBERTURA VISTA PARA O MAR, PORCELANATO, 3 SUÍTES, CHURRASQUEIRA, PREÇOS A PARTIR DE R$ 299.000,00.</t>
+  </si>
+  <si>
+    <t>toda no Porcelanato, Composta por:</t>
+  </si>
+  <si>
+    <t>Imóvel constituído por:</t>
+  </si>
+  <si>
+    <t>CASA COM 2 QUARTOS SENDO 1 SUÍTE, SALA, COZINHA AMERICANA, BANHEIRO SOCIAL, ÁREA DE SERVIÇO, VARANDA, BANH...</t>
+  </si>
+  <si>
+    <t>Entre em contato conosco:</t>
+  </si>
+  <si>
+    <t>Imóvel TOTALMENTE LEGALIZADO, RGI, ACEITO FINANCIAMENTO E FGTS, Vendo excelente e espaçosa casa, em Unamar, Cabo Frio, perto da praia EM SEU MELHOR TRECHO, Residencial VIVAMAR, ao...</t>
+  </si>
+  <si>
+    <t>Regiao dos Lagos - Caribe Brasileiro - Praia Bandeira Azul - Turismo internacional - Rio de Janeiro - Brasil</t>
   </si>
   <si>
     <t>Casa em condominio fechado com segurança total!! Otima localização ,próximo a comercio e com muita tranquilidade espaço com 3 Suites grandes, copa, cozinha e área de serviço e sala...</t>
   </si>
   <si>
+    <t>Avenida Beira-mar, Terramar Tamoios</t>
+  </si>
+  <si>
+    <t>𝐕𝐞𝐧𝐝𝐞- 𝐒𝐞 𝐂𝐚𝐬𝐚 𝐞𝐦 𝐂𝐨𝐧𝐝𝐨𝐦𝐢𝐧𝐢𝐨 𝐅𝐞𝐜𝐡𝐚𝐝𝐨 !🎉🏠</t>
+  </si>
+  <si>
     <t>3 quartos, 2 vagas, mobiliado, tudo novo, casa pintada, condominio com 9 casas apenas. A 100m do shopping do Pero. Entre em contato agora.</t>
   </si>
   <si>
-    <t>Vendo ótima casa em lugar tranquilo e próximo do mar. A poucos metros da praia e perto de comércios. Construção em terreno de 360 m2. Local conhecido como Long Beach, localizado no...</t>
-  </si>
-  <si>
-    <t>Casa independente, com RGI, direto com proprietário!</t>
-  </si>
-  <si>
-    <t>Vendo excelente apto no Braga , para pessoas de bom gosto ; sala 2 ambientes 2 qtos sendo uma suíte ambos com armários embutidos ,Banheiro social, varandão, cozinha altamente monta...</t>
-  </si>
-  <si>
-    <t>EXCELENTE OPORTUNIDADE !!!! MORE NO PARAÍSO- Ogiva , Bairro Nobre de Cabo Frio/RJ . Condomínio com excelente área de Lazer - Piscina - Sauna - Churrasqueira Coberta. Casa Duplex co...</t>
+    <t>Terreno Top Excelente localização no condomínio Padrão Alphaville Total infraestrutura Piscina Sauna Academia Salão de festas Quadras Parquinhos, etc Segurança 24h Próximo à praia</t>
   </si>
   <si>
     <t>CASA SUPER N OVA, 1A. LOCAÇÃO,LINDA, PERTINHO DA PRAIA, PODENDO IR Á PÉ, NO CONDOMÍNIO RESIDENCIAL UNAMAR, SEGURANÇA 24 HORAS, COM 3 PISCINAS, PARQUINHO INFANTIL, ÁREA DE LAZER. FA...</t>
   </si>
   <si>
-    <t>Cobertura Duplex 1 piso - sala de estar com varanda, sala de jantar, cozinha com lavabo, quarto de serviço e 1 suíte. 2 piso - 3 quartos sendo 1 suíte com banheira, varandão com ch...</t>
-  </si>
-  <si>
-    <t>Excelente apartamento na quadra da Praia do Forte, sol da manhã e tarde e com vista livre. Distribuído em 2 dormitórios amplos (sendo 1 suíte ) ambos com varanda, sala em 2 ambient...</t>
-  </si>
-  <si>
-    <t>Cobertura Duplex na região mais valorizada de Cabo Frio a Passagem ao lado do centro e da praia do forte, a 200 metros da areia da praia, vista parcial indevassável para o canal e...</t>
-  </si>
-  <si>
-    <t>Vendo R$75000,00 ACEITO PROPOSTAS! Alugo (R$ 2200 com taxas incluídas - condomínio e IPTU) Ou faço permuta Ótima casa em condomínio, com terreno 186,38 m² e área construída de 167,...</t>
-  </si>
-  <si>
-    <t>02-Imóvel em Unamar - Tamoios - Cabo Frio/Região dos Lagos</t>
-  </si>
-  <si>
-    <t>Excelente casa linear individual no Condomínio Bosque do Peró. Terreno de 200m2 plano na melhor localização do condomínio (primeira quadra).</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de Imóveis</t>
-  </si>
-  <si>
-    <t>- Sala em dois ambientes, com varanda, rebaixamento com iluminação indireta em LED, ar condicionado split quente/frio inv...</t>
-  </si>
-  <si>
-    <t>Apto com belíssima vista da praia, em posição privilegiada, frente p/ o sol da manhã, 3º andar, super ventilado, claro e sómente um vizinho latera...</t>
-  </si>
-  <si>
-    <t>Aceita financiamento bancário!</t>
-  </si>
-  <si>
-    <t>Projeto da área privativa diferencia...</t>
-  </si>
-  <si>
-    <t>Tv. Quatro, 3 - Rúbia, Nova Venécia - ES, 29830-000</t>
-  </si>
-  <si>
-    <t>Rua Antônio de Oliveira Gama, Jardim Flamboyant</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 01 074.516</t>
-  </si>
-  <si>
-    <t>Rua Jorge Lossio, Centro</t>
-  </si>
-  <si>
-    <t>Rua João Antônio Rocha, Braga</t>
-  </si>
-  <si>
-    <t>Rua Antônio Feliciano de Almeida, Passagem</t>
+    <t>Para você que busca tranquilidade, contato com a natureza, e estar próximo a uma das melhores praias da região.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>Lindos triplex com cobertura e visão panorâmica para o mar, toda...</t>
+  </si>
+  <si>
+    <t>2 quartos amplos, 1 suíte, Sala ampla e arejada com pintura perfeita, Coz...</t>
+  </si>
+  <si>
+    <t>Casa possui 2 quartos</t>
+  </si>
+  <si>
+    <t>2 Quartos sendo 1 Suíte</t>
+  </si>
+  <si>
+    <t>148 m²</t>
+  </si>
+  <si>
+    <t>Avenida Beira-mar, Aquariús</t>
+  </si>
+  <si>
+    <t>CONDOMINIO GRAVATÁ....EXCELENTE IMÓVEL, LOCALIZAÇÃO PRIVILEGIADA PELA NATUREZA COM MUITAS ARVORES, 5 MINUTOS DAS PRAIAS......</t>
+  </si>
+  <si>
+    <t>Realize o sonho da casa própria com Fernanda Queiroz Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>CRECI/RJ: 075.292</t>
+  </si>
+  <si>
+    <t>Rua Adelir Novelino Marques, Sao Bento</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Avenida Gravatá, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>CASA COM 2 QUARTOS SENDO 1 SUÍTE, SALA, COZINHA AMERICANA, BANHEIRO SOCI...</t>
+  </si>
+  <si>
+    <t>Vivamar Tamoios, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Ca...</t>
   </si>
   <si>
     <t>Rua Salvador, Palmeiras</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Localizada no C...</t>
+  </si>
+  <si>
     <t>Avenida dos Pescadores, Peró</t>
   </si>
   <si>
-    <t>Rua Um, Long Beach Tamoios</t>
-  </si>
-  <si>
-    <t>A casa possui 2 quartos (1suíte), sala, cozinha americana, 2 banheiros, área de serviço,...</t>
-  </si>
-  <si>
-    <t>Avenida Vereador Antônio Ferreira dos Santos, Braga</t>
-  </si>
-  <si>
-    <t>Avenida Marimbas, Ogiva</t>
+    <t>Rua do Guriri, Peró</t>
+  </si>
+  <si>
+    <t>170 m²</t>
   </si>
   <si>
     <t>Rua Orlando Bragança, Unamar</t>
   </si>
   <si>
-    <t>Vila Nova, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Rua Mestre Vivim, Centro</t>
-  </si>
-  <si>
-    <t>Rua Belo Horizonte, Palmeiras</t>
-  </si>
-  <si>
-    <t>Você que está pensando em adquirir seu imóvel aproveite a oportunidade da imobiliária Confiança , estamos com cond...</t>
-  </si>
-  <si>
-    <t>82 m²</t>
-  </si>
-  <si>
-    <t>192 m²</t>
+    <t>Casa em centro de terreno com varanda, jardim com árvores fru...</t>
+  </si>
+  <si>
+    <t>CRECI/RJ: 01 074.981</t>
+  </si>
+  <si>
+    <t>190 m²</t>
+  </si>
+  <si>
+    <t>Rua do VG, Tamoios</t>
+  </si>
+  <si>
+    <t>Alameda das Flores, Terramar Tamoios</t>
+  </si>
+  <si>
+    <t>Cozinha americana</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>130 m²</t>
   </si>
   <si>
     <t>80 m²</t>
   </si>
   <si>
-    <t>Braga, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Rua Ramon Pereló Filho, Braga</t>
-  </si>
-  <si>
-    <t>116 m²</t>
-  </si>
-  <si>
     <t>100 m²</t>
   </si>
   <si>
     <t>150 m²</t>
   </si>
   <si>
-    <t>97 m²</t>
-  </si>
-  <si>
-    <t>92 m²</t>
-  </si>
-  <si>
-    <t>73 m²</t>
+    <t>360 m²</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
   </si>
   <si>
     <t>95 m²</t>
   </si>
   <si>
-    <t>143 m²</t>
-  </si>
-  <si>
-    <t>64 m²</t>
-  </si>
-  <si>
-    <t>140 m²</t>
-  </si>
-  <si>
-    <t>MAGDALA FURTADO IMOBILIARIA VENDE :</t>
-  </si>
-  <si>
-    <t>167 m²</t>
-  </si>
-  <si>
-    <t>Rua do Guriri, Peró</t>
-  </si>
-  <si>
-    <t>, Nova Venécia</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Unamar, Cabo Frio</t>
+    <t>Cód...</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>165 m²</t>
+  </si>
+  <si>
+    <t>90 m²</t>
+  </si>
+  <si>
+    <t>Banheiro</t>
+  </si>
+  <si>
+    <t>área d...</t>
+  </si>
+  <si>
+    <t>Peró, Cabo Frio</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>101 m²</t>
-  </si>
-  <si>
-    <t>86 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>180 m²</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Santa Margarida II Tamoios, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Rua das Orquídeas, Caminho de Buzios</t>
+  </si>
+  <si>
+    <t>Para in...</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>85 m²</t>
+  </si>
+  <si>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>65 m²</t>
   </si>
   <si>
     <t>60 m²</t>
   </si>
   <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>Casa com 2 quartos, sendo 1 suíte, sala, cozinha americana, banheiro social, área de...</t>
-  </si>
-  <si>
-    <t>610 m²</t>
-  </si>
-  <si>
-    <t>Nova California Tamoios, Cabo Frio</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>420 m²</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>59 m²</t>
+  </si>
+  <si>
+    <t>36 m²</t>
   </si>
 </sst>
 </file>
@@ -807,28 +801,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>114</v>
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -836,37 +821,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -874,40 +868,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,37 +912,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -953,37 +950,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -991,40 +991,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1032,40 +1026,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,37 +1073,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1111,37 +1120,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="M10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,37 +1167,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,34 +1202,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,43 +1240,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,37 +1278,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s">
-        <v>109</v>
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,37 +1319,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,312 +1357,288 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>112</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>111</v>
+      </c>
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O20" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="L21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>111</v>
+      </c>
+      <c r="M21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" t="s">
-        <v>121</v>
-      </c>
-      <c r="N22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>113</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M23" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="N23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
